--- a/pw1/Keyframes/outros/time.xlsx
+++ b/pw1/Keyframes/outros/time.xlsx
@@ -23,10 +23,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="General\%"/>
+    <numFmt numFmtId="164" formatCode="General\%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -57,9 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,19 +348,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>17</v>
       </c>
@@ -360,7 +370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>17</v>
       </c>
@@ -374,8 +384,14 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H26" si="0">(F2+G2) * 100 / 49.1847135</f>
+        <v>6.6077440910578851</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9.5</v>
       </c>
@@ -383,15 +399,20 @@
         <v>46</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F27" si="0">(((B2-B3)^2+(C2-C3)^2)^0.5)/4</f>
+        <f t="shared" ref="F3:F26" si="1">(((B2-B3)^2+(C2-C3)^2)^0.5)/4</f>
         <v>1.875</v>
       </c>
       <c r="G3" s="1">
         <f>F2+G1</f>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>10.41990414359128</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>9.5</v>
       </c>
@@ -399,15 +420,20 @@
         <v>39.5</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
       <c r="G4" s="1">
         <f>F3+G3</f>
         <v>5.125</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>13.723776189120223</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10.5</v>
       </c>
@@ -415,15 +441,20 @@
         <v>39.5</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G27" si="1">F4+G4</f>
+        <f t="shared" ref="G5:G26" si="2">F4+G4</f>
         <v>6.75</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>14.232064196124675</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>13.5</v>
       </c>
@@ -435,11 +466,16 @@
         <v>1.5</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>17.281792238151393</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
@@ -447,15 +483,20 @@
         <v>39.5</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>20.585664283680334</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>21</v>
       </c>
@@ -463,15 +504,20 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27950849718747373</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.125</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>21.153947551585258</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>27</v>
       </c>
@@ -483,11 +529,16 @@
         <v>3.3541019662496847</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.404508497187473</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>27.97334676644433</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>29</v>
       </c>
@@ -499,11 +550,16 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.758610463437158</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>28.989922780453234</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>33</v>
       </c>
@@ -511,15 +567,20 @@
         <v>27</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.462214450449026</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.258610463437158</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>33.995979083798431</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>37</v>
       </c>
@@ -527,15 +588,20 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.720824913886183</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>36.029131111816241</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>39.5</v>
       </c>
@@ -547,11 +613,16 @@
         <v>0.88388347648318444</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.720824913886183</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>37.826200594559459</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>42</v>
       </c>
@@ -559,15 +630,20 @@
         <v>28</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72886898685566259</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.604708390369368</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>39.308102053344342</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>47</v>
       </c>
@@ -579,11 +655,16 @@
         <v>2.9154759474226504</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.33357737722503</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>45.235707888483844</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>52</v>
       </c>
@@ -591,15 +672,20 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.249053324647679</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>47.777147923506114</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>52</v>
       </c>
@@ -607,15 +693,20 @@
         <v>29</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.499053324647679</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>49.810299951523923</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>61</v>
       </c>
@@ -623,15 +714,20 @@
         <v>29</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.499053324647679</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>54.384892014563995</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>61</v>
       </c>
@@ -639,15 +735,20 @@
         <v>52.5</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.875</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.749053324647679</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>66.329660179168627</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>54</v>
       </c>
@@ -655,15 +756,20 @@
         <v>52.5</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.624053324647676</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>69.887676228199794</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>51</v>
       </c>
@@ -671,15 +777,20 @@
         <v>55.5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0606601717798212</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.374053324647676</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>72.044159607491665</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>51</v>
       </c>
@@ -687,15 +798,20 @@
         <v>59.5</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.434713496427499</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>74.077311635509474</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>40.5</v>
       </c>
@@ -703,15 +819,20 @@
         <v>59.5</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.625</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.434713496427499</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>79.414335709056218</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>40.5</v>
       </c>
@@ -719,15 +840,20 @@
         <v>48</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.059713496427499</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
+        <v>85.259647789607442</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>26.5</v>
       </c>
@@ -735,15 +861,20 @@
         <v>48</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.934713496427499</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>92.375679887669776</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>26.5</v>
       </c>
@@ -751,15 +882,20 @@
         <v>59</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.434713496427499</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>97.966847964718752</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>22.5</v>
       </c>
@@ -771,9 +907,22 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <f>F26+G26</f>
         <v>48.184713496427499</v>
       </c>
+      <c r="H27" s="5">
+        <f>(F27+G27) * 100 / 49.1847135</f>
+        <v>99.999999992736562</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f>F27+G27</f>
+        <v>49.184713496427499</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
